--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_13-31.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_13-31.xlsx
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>1:2</t>
+  </si>
+  <si>
+    <t>SKINATRA TOP. OINT. 15 GM</t>
   </si>
   <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
@@ -1345,13 +1348,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1371,17 +1374,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1397,17 +1400,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1415,7 +1418,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1423,17 +1426,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1441,7 +1444,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1449,13 +1452,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1475,13 +1478,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1493,7 +1496,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1501,17 +1504,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1519,7 +1522,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1527,17 +1530,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>12</v>
+        <v>11.67</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1545,7 +1548,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1553,17 +1556,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1571,7 +1574,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1579,17 +1582,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1605,17 +1608,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1631,13 +1634,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1649,7 +1652,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1657,13 +1660,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1671,37 +1674,63 @@
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
-      <c r="K38" s="10">
-        <v>1074.3199999999999</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" ht="17.25" customHeight="1">
-      <c t="s" r="A39" s="11">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c t="s" r="B38" s="7">
+        <v>65</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c t="s" r="H38" s="8">
         <v>66</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c t="s" r="F39" s="12">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9">
+        <v>40</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c t="s" r="N38" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="K39" s="10">
+        <v>1133.3199999999999</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="11">
         <v>67</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c t="s" r="I39" s="14">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c t="s" r="F40" s="12">
         <v>68</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+      <c t="s" r="I40" s="14">
+        <v>69</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="116">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1811,10 +1840,13 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:N40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
